--- a/REGULAR/HERNANDO, MERLE.xlsx
+++ b/REGULAR/HERNANDO, MERLE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\BUDGET\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721F79A7-10B9-4AC1-B627-01C9A402751B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61C4DAF-2FF2-47F8-8A73-B98F2E57B131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -25,25 +25,17 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="74">
   <si>
     <t>PERIOD</t>
   </si>
@@ -262,6 +254,9 @@
   </si>
   <si>
     <t>12/26-31/2022</t>
+  </si>
+  <si>
+    <t>2023</t>
   </si>
 </sst>
 </file>
@@ -2367,7 +2362,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K152" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K154" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
@@ -2714,12 +2709,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K152"/>
+  <dimension ref="A2:K154"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A87" activePane="bottomLeft"/>
-      <selection activeCell="F2" sqref="F2:G2"/>
-      <selection pane="bottomLeft" activeCell="I93" sqref="I93"/>
+      <pane ySplit="3576" topLeftCell="A91" activePane="bottomLeft"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection pane="bottomLeft" activeCell="F101" sqref="F101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2882,7 +2877,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>65.087000000000003</v>
+        <v>67.837000000000003</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2892,7 +2887,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>122</v>
+        <v>125.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4736,7 +4731,9 @@
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" s="40"/>
+      <c r="A94" s="48" t="s">
+        <v>73</v>
+      </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
       <c r="D94" s="39"/>
@@ -4752,15 +4749,19 @@
       <c r="K94" s="20"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95" s="40"/>
+      <c r="A95" s="40">
+        <v>44927</v>
+      </c>
       <c r="B95" s="20"/>
-      <c r="C95" s="13"/>
+      <c r="C95" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D95" s="39"/>
       <c r="E95" s="9"/>
       <c r="F95" s="20"/>
-      <c r="G95" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G95" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H95" s="39"/>
       <c r="I95" s="9"/>
@@ -4768,15 +4769,19 @@
       <c r="K95" s="20"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="40"/>
+      <c r="A96" s="40">
+        <v>44958</v>
+      </c>
       <c r="B96" s="20"/>
-      <c r="C96" s="13"/>
+      <c r="C96" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D96" s="39"/>
       <c r="E96" s="9"/>
       <c r="F96" s="20"/>
-      <c r="G96" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G96" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H96" s="39"/>
       <c r="I96" s="9"/>
@@ -4784,26 +4789,38 @@
       <c r="K96" s="20"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="40"/>
-      <c r="B97" s="20"/>
-      <c r="C97" s="13"/>
+      <c r="A97" s="40">
+        <v>44986</v>
+      </c>
+      <c r="B97" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C97" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D97" s="39"/>
       <c r="E97" s="9"/>
       <c r="F97" s="20"/>
-      <c r="G97" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G97" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H97" s="39"/>
       <c r="I97" s="9"/>
       <c r="J97" s="11"/>
-      <c r="K97" s="20"/>
+      <c r="K97" s="49">
+        <v>44994</v>
+      </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
-      <c r="B98" s="20"/>
+      <c r="B98" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C98" s="13"/>
-      <c r="D98" s="39"/>
+      <c r="D98" s="39">
+        <v>1</v>
+      </c>
       <c r="E98" s="9"/>
       <c r="F98" s="20"/>
       <c r="G98" s="13" t="str">
@@ -4813,10 +4830,14 @@
       <c r="H98" s="39"/>
       <c r="I98" s="9"/>
       <c r="J98" s="11"/>
-      <c r="K98" s="20"/>
+      <c r="K98" s="49">
+        <v>45005</v>
+      </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99" s="40"/>
+      <c r="A99" s="40">
+        <v>45017</v>
+      </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
       <c r="D99" s="39"/>
@@ -4832,7 +4853,9 @@
       <c r="K99" s="20"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="40"/>
+      <c r="A100" s="40">
+        <v>45047</v>
+      </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
       <c r="D100" s="39"/>
@@ -4848,7 +4871,9 @@
       <c r="K100" s="20"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="40"/>
+      <c r="A101" s="40">
+        <v>45078</v>
+      </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
       <c r="D101" s="39"/>
@@ -4864,7 +4889,9 @@
       <c r="K101" s="20"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102" s="40"/>
+      <c r="A102" s="40">
+        <v>45108</v>
+      </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
       <c r="D102" s="39"/>
@@ -4880,7 +4907,9 @@
       <c r="K102" s="20"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103" s="40"/>
+      <c r="A103" s="40">
+        <v>45139</v>
+      </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
       <c r="D103" s="39"/>
@@ -4896,7 +4925,9 @@
       <c r="K103" s="20"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A104" s="40"/>
+      <c r="A104" s="40">
+        <v>45170</v>
+      </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
       <c r="D104" s="39"/>
@@ -4912,7 +4943,9 @@
       <c r="K104" s="20"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A105" s="40"/>
+      <c r="A105" s="40">
+        <v>45200</v>
+      </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
       <c r="D105" s="39"/>
@@ -4928,7 +4961,9 @@
       <c r="K105" s="20"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A106" s="40"/>
+      <c r="A106" s="40">
+        <v>45231</v>
+      </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
       <c r="D106" s="39"/>
@@ -4944,7 +4979,9 @@
       <c r="K106" s="20"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A107" s="40"/>
+      <c r="A107" s="40">
+        <v>45261</v>
+      </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
       <c r="D107" s="39"/>
@@ -4960,7 +4997,9 @@
       <c r="K107" s="20"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A108" s="40"/>
+      <c r="A108" s="40">
+        <v>45292</v>
+      </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
       <c r="D108" s="39"/>
@@ -4976,7 +5015,9 @@
       <c r="K108" s="20"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A109" s="40"/>
+      <c r="A109" s="40">
+        <v>45323</v>
+      </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
       <c r="D109" s="39"/>
@@ -4992,7 +5033,9 @@
       <c r="K109" s="20"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A110" s="40"/>
+      <c r="A110" s="40">
+        <v>45352</v>
+      </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
       <c r="D110" s="39"/>
@@ -5008,7 +5051,9 @@
       <c r="K110" s="20"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A111" s="40"/>
+      <c r="A111" s="40">
+        <v>45383</v>
+      </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
       <c r="D111" s="39"/>
@@ -5024,7 +5069,9 @@
       <c r="K111" s="20"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A112" s="40"/>
+      <c r="A112" s="40">
+        <v>45413</v>
+      </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
       <c r="D112" s="39"/>
@@ -5040,7 +5087,9 @@
       <c r="K112" s="20"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A113" s="40"/>
+      <c r="A113" s="40">
+        <v>45444</v>
+      </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
       <c r="D113" s="39"/>
@@ -5056,7 +5105,9 @@
       <c r="K113" s="20"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A114" s="40"/>
+      <c r="A114" s="40">
+        <v>45474</v>
+      </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
       <c r="D114" s="39"/>
@@ -5664,20 +5715,52 @@
       <c r="K151" s="20"/>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A152" s="41"/>
-      <c r="B152" s="15"/>
-      <c r="C152" s="42"/>
-      <c r="D152" s="43"/>
+      <c r="A152" s="40"/>
+      <c r="B152" s="20"/>
+      <c r="C152" s="13"/>
+      <c r="D152" s="39"/>
       <c r="E152" s="9"/>
-      <c r="F152" s="15"/>
-      <c r="G152" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H152" s="43"/>
+      <c r="F152" s="20"/>
+      <c r="G152" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H152" s="39"/>
       <c r="I152" s="9"/>
-      <c r="J152" s="12"/>
-      <c r="K152" s="15"/>
+      <c r="J152" s="11"/>
+      <c r="K152" s="20"/>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A153" s="40"/>
+      <c r="B153" s="20"/>
+      <c r="C153" s="13"/>
+      <c r="D153" s="39"/>
+      <c r="E153" s="9"/>
+      <c r="F153" s="20"/>
+      <c r="G153" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H153" s="39"/>
+      <c r="I153" s="9"/>
+      <c r="J153" s="11"/>
+      <c r="K153" s="20"/>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A154" s="41"/>
+      <c r="B154" s="15"/>
+      <c r="C154" s="42"/>
+      <c r="D154" s="43"/>
+      <c r="E154" s="9"/>
+      <c r="F154" s="15"/>
+      <c r="G154" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H154" s="43"/>
+      <c r="I154" s="9"/>
+      <c r="J154" s="12"/>
+      <c r="K154" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
